--- a/WindowsFormsApp1/Asientos.xlsx
+++ b/WindowsFormsApp1/Asientos.xlsx
@@ -1,100 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="12615" windowHeight="5580"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="SpreadsheetLight"/>
+  <x:bookViews>
+    <x:workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:calcPr calcId="0" concurrentCalc="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>N°Asiento</t>
-  </si>
-  <si>
-    <t>Cuentas</t>
-  </si>
-  <si>
-    <t>Debe</t>
-  </si>
-  <si>
-    <t>Haber</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Banco</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Caja</t>
-  </si>
-  <si>
-    <t>Mercaderia</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
+  <x:si>
+    <x:t>N°Asiento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cuentas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Debe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nueva Cuenta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mercadera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>caja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>banco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASDF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdasd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASDASD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfsdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdfasdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sadfasdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdfas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfasd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdfa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sadfa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercaderia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFGD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SDFSDF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SDFSD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qwe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eeeeee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aaaaaa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zzzzzzzzz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hhhhhhh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hjkhgjgkhjk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1456</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:scheme val="minor"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,88 +542,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:D16"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A10" sqref="A1:J10"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>